--- a/SoilBoringLog.xlsx
+++ b/SoilBoringLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thebe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CD22C8-2596-456E-B7FC-46478F8314B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B58C85B-7DD6-4AD0-9B1B-F08D8400F372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13080" yWindow="615" windowWidth="14400" windowHeight="15600" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>Depth, m</t>
   </si>
@@ -82,6 +82,138 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>ST-01</t>
+  </si>
+  <si>
+    <t>ST-02</t>
+  </si>
+  <si>
+    <t>ST-03</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>ST-04</t>
+  </si>
+  <si>
+    <t>ST-05</t>
+  </si>
+  <si>
+    <t>ST-06</t>
+  </si>
+  <si>
+    <t>ST-07</t>
+  </si>
+  <si>
+    <t>ST-08</t>
+  </si>
+  <si>
+    <t>ST-09</t>
+  </si>
+  <si>
+    <t>SS-10</t>
+  </si>
+  <si>
+    <t>SS-11</t>
+  </si>
+  <si>
+    <t>SS-12</t>
+  </si>
+  <si>
+    <t>SS-13</t>
+  </si>
+  <si>
+    <t>SS-14</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>SS-15</t>
+  </si>
+  <si>
+    <t>SS-16</t>
+  </si>
+  <si>
+    <t>SS-17</t>
+  </si>
+  <si>
+    <t>SS-18</t>
+  </si>
+  <si>
+    <t>SS-19</t>
+  </si>
+  <si>
+    <t>SS-20</t>
+  </si>
+  <si>
+    <t>SS-21</t>
+  </si>
+  <si>
+    <t>SS-22</t>
+  </si>
+  <si>
+    <t>SS-23</t>
+  </si>
+  <si>
+    <t>SS-24</t>
+  </si>
+  <si>
+    <t>SS-25</t>
+  </si>
+  <si>
+    <t>SS-26</t>
+  </si>
+  <si>
+    <t>SS-27</t>
+  </si>
+  <si>
+    <t>SS-28</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>SS-29</t>
+  </si>
+  <si>
+    <t>SS-30</t>
+  </si>
+  <si>
+    <t>SS-31</t>
+  </si>
+  <si>
+    <t>SS-32</t>
+  </si>
+  <si>
+    <t>SS-33</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SS-34</t>
+  </si>
+  <si>
+    <t>SS-35</t>
+  </si>
+  <si>
+    <t>SS-36</t>
+  </si>
+  <si>
+    <t>SS-37</t>
+  </si>
+  <si>
+    <t>SS-38</t>
+  </si>
+  <si>
+    <t>SS-39</t>
+  </si>
+  <si>
+    <t>SS-40</t>
   </si>
 </sst>
 </file>
@@ -456,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -538,6 +670,980 @@
       </c>
       <c r="N3" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>37.880000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3.5</v>
+      </c>
+      <c r="D5">
+        <v>40.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>4.5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>39.99</v>
+      </c>
+      <c r="E6">
+        <v>1.59</v>
+      </c>
+      <c r="H6">
+        <v>61.2</v>
+      </c>
+      <c r="I6">
+        <v>30.69</v>
+      </c>
+      <c r="J6">
+        <v>30.51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6.5</v>
+      </c>
+      <c r="D7">
+        <v>58.78</v>
+      </c>
+      <c r="E7">
+        <v>1.47</v>
+      </c>
+      <c r="H7">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="I7">
+        <v>25.39</v>
+      </c>
+      <c r="J7">
+        <v>54.010000000000005</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>7.5</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>80.069999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>9.5</v>
+      </c>
+      <c r="D9">
+        <v>63.48</v>
+      </c>
+      <c r="E9">
+        <v>1.64</v>
+      </c>
+      <c r="H9">
+        <v>79.3</v>
+      </c>
+      <c r="I9">
+        <v>23.71</v>
+      </c>
+      <c r="J9">
+        <v>55.589999999999996</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>10.5</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>60.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>12.5</v>
+      </c>
+      <c r="D11">
+        <v>60.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>13.5</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>65.12</v>
+      </c>
+      <c r="E12">
+        <v>1.89</v>
+      </c>
+      <c r="H12">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="I12">
+        <v>30.99</v>
+      </c>
+      <c r="J12">
+        <v>49.11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>15.5</v>
+      </c>
+      <c r="D13">
+        <v>24.36</v>
+      </c>
+      <c r="M13">
+        <v>15.006250000000001</v>
+      </c>
+      <c r="N13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>16.5</v>
+      </c>
+      <c r="C14">
+        <v>16.95</v>
+      </c>
+      <c r="D14">
+        <v>24.69</v>
+      </c>
+      <c r="E14">
+        <v>1.85</v>
+      </c>
+      <c r="M14">
+        <v>15.006250000000001</v>
+      </c>
+      <c r="N14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>18.45</v>
+      </c>
+      <c r="D15">
+        <v>34.69</v>
+      </c>
+      <c r="E15">
+        <v>1.94</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>94.36</v>
+      </c>
+      <c r="H15">
+        <v>83.4</v>
+      </c>
+      <c r="I15">
+        <v>28.69</v>
+      </c>
+      <c r="J15">
+        <v>54.710000000000008</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15">
+        <v>13.168750000000001</v>
+      </c>
+      <c r="N15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>19.5</v>
+      </c>
+      <c r="C16">
+        <v>19.95</v>
+      </c>
+      <c r="D16">
+        <v>21.45</v>
+      </c>
+      <c r="E16">
+        <v>1.97</v>
+      </c>
+      <c r="N16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>21.45</v>
+      </c>
+      <c r="D17">
+        <v>16.48</v>
+      </c>
+      <c r="E17">
+        <v>1.93</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>38.78</v>
+      </c>
+      <c r="K17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>22.5</v>
+      </c>
+      <c r="C18">
+        <v>22.95</v>
+      </c>
+      <c r="D18">
+        <v>18.98</v>
+      </c>
+      <c r="N18">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>24.45</v>
+      </c>
+      <c r="D19">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="N19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>25.5</v>
+      </c>
+      <c r="C20">
+        <v>25.95</v>
+      </c>
+      <c r="D20">
+        <v>23.99</v>
+      </c>
+      <c r="N20">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>27.45</v>
+      </c>
+      <c r="D21">
+        <v>14.38</v>
+      </c>
+      <c r="E21">
+        <v>1.97</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>23.78</v>
+      </c>
+      <c r="K21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>28.5</v>
+      </c>
+      <c r="C22">
+        <v>28.95</v>
+      </c>
+      <c r="D22">
+        <v>26.98</v>
+      </c>
+      <c r="E22">
+        <v>1.82</v>
+      </c>
+      <c r="M22">
+        <v>18.681250000000002</v>
+      </c>
+      <c r="N22">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>30.45</v>
+      </c>
+      <c r="D23">
+        <v>24.68</v>
+      </c>
+      <c r="M23">
+        <v>18.681250000000002</v>
+      </c>
+      <c r="N23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>31.5</v>
+      </c>
+      <c r="C24">
+        <v>31.95</v>
+      </c>
+      <c r="D24">
+        <v>23.97</v>
+      </c>
+      <c r="E24">
+        <v>1.84</v>
+      </c>
+      <c r="M24">
+        <v>21.4375</v>
+      </c>
+      <c r="N24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="D25">
+        <v>23.47</v>
+      </c>
+      <c r="E25">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H25">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="I25">
+        <v>27.64</v>
+      </c>
+      <c r="J25">
+        <v>48.760000000000005</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>21.131250000000001</v>
+      </c>
+      <c r="N25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>34.5</v>
+      </c>
+      <c r="C26">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="D26">
+        <v>21.24</v>
+      </c>
+      <c r="E26">
+        <v>1.95</v>
+      </c>
+      <c r="M26">
+        <v>27.562500000000004</v>
+      </c>
+      <c r="N26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="D27">
+        <v>22.37</v>
+      </c>
+      <c r="E27">
+        <v>2.13</v>
+      </c>
+      <c r="M27">
+        <v>19.293750000000003</v>
+      </c>
+      <c r="N27">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>37.5</v>
+      </c>
+      <c r="C28">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="D28">
+        <v>20.77</v>
+      </c>
+      <c r="E28">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>87.96</v>
+      </c>
+      <c r="H28">
+        <v>62.35</v>
+      </c>
+      <c r="I28">
+        <v>20.45</v>
+      </c>
+      <c r="J28">
+        <v>41.900000000000006</v>
+      </c>
+      <c r="K28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28">
+        <v>19.293750000000003</v>
+      </c>
+      <c r="N28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="D29">
+        <v>17.64</v>
+      </c>
+      <c r="E29">
+        <v>1.74</v>
+      </c>
+      <c r="M29">
+        <v>27.562500000000004</v>
+      </c>
+      <c r="N29">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>40.5</v>
+      </c>
+      <c r="C30">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="D30">
+        <v>17.68</v>
+      </c>
+      <c r="E30">
+        <v>2.09</v>
+      </c>
+      <c r="M30">
+        <v>23.581250000000001</v>
+      </c>
+      <c r="N30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <v>42.45</v>
+      </c>
+      <c r="D31">
+        <v>18.39</v>
+      </c>
+      <c r="E31">
+        <v>1.86</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>64.78</v>
+      </c>
+      <c r="H31">
+        <v>34.89</v>
+      </c>
+      <c r="I31">
+        <v>14.68</v>
+      </c>
+      <c r="J31">
+        <v>20.21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31">
+        <v>24.5</v>
+      </c>
+      <c r="N31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>43.5</v>
+      </c>
+      <c r="C32">
+        <v>43.95</v>
+      </c>
+      <c r="D32">
+        <v>20.78</v>
+      </c>
+      <c r="E32">
+        <v>1.99</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>58.45</v>
+      </c>
+      <c r="H32">
+        <v>32.58</v>
+      </c>
+      <c r="I32">
+        <v>13.68</v>
+      </c>
+      <c r="J32">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32">
+        <v>22.96875</v>
+      </c>
+      <c r="N32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>45.45</v>
+      </c>
+      <c r="D33">
+        <v>14.99</v>
+      </c>
+      <c r="N33">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>46.5</v>
+      </c>
+      <c r="C34">
+        <v>46.95</v>
+      </c>
+      <c r="D34">
+        <v>13.65</v>
+      </c>
+      <c r="N34">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>48.45</v>
+      </c>
+      <c r="D35">
+        <v>18.46</v>
+      </c>
+      <c r="N35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36">
+        <v>49.5</v>
+      </c>
+      <c r="C36">
+        <v>49.95</v>
+      </c>
+      <c r="D36">
+        <v>16.52</v>
+      </c>
+      <c r="E36">
+        <v>1.84</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>36.94</v>
+      </c>
+      <c r="H36">
+        <v>36.47</v>
+      </c>
+      <c r="I36">
+        <v>13.69</v>
+      </c>
+      <c r="J36">
+        <v>22.78</v>
+      </c>
+      <c r="K36" t="s">
+        <v>55</v>
+      </c>
+      <c r="N36">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37">
+        <v>51</v>
+      </c>
+      <c r="C37">
+        <v>51.45</v>
+      </c>
+      <c r="D37">
+        <v>18.36</v>
+      </c>
+      <c r="N37">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38">
+        <v>52.5</v>
+      </c>
+      <c r="C38">
+        <v>52.95</v>
+      </c>
+      <c r="D38">
+        <v>16.78</v>
+      </c>
+      <c r="N38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39">
+        <v>54</v>
+      </c>
+      <c r="C39">
+        <v>54.45</v>
+      </c>
+      <c r="D39">
+        <v>20.21</v>
+      </c>
+      <c r="E39">
+        <v>1.67</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>63.75</v>
+      </c>
+      <c r="H39">
+        <v>30.85</v>
+      </c>
+      <c r="I39">
+        <v>9.86</v>
+      </c>
+      <c r="J39">
+        <v>20.99</v>
+      </c>
+      <c r="K39" t="s">
+        <v>49</v>
+      </c>
+      <c r="M39">
+        <v>25.725000000000001</v>
+      </c>
+      <c r="N39">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40">
+        <v>55.5</v>
+      </c>
+      <c r="C40">
+        <v>55.95</v>
+      </c>
+      <c r="D40">
+        <v>23.14</v>
+      </c>
+      <c r="M40">
+        <v>27.562500000000004</v>
+      </c>
+      <c r="N40">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41">
+        <v>57</v>
+      </c>
+      <c r="C41">
+        <v>57.45</v>
+      </c>
+      <c r="D41">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="M41">
+        <v>65.84375</v>
+      </c>
+      <c r="N41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42">
+        <v>58.5</v>
+      </c>
+      <c r="C42">
+        <v>58.95</v>
+      </c>
+      <c r="D42">
+        <v>16.45</v>
+      </c>
+      <c r="N42">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43">
+        <v>60</v>
+      </c>
+      <c r="C43">
+        <v>60.45</v>
+      </c>
+      <c r="D43">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>23.64</v>
+      </c>
+      <c r="K43" t="s">
+        <v>34</v>
+      </c>
+      <c r="N43">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
